--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F27887-6CB6-44DD-BAAD-7CB32596464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595CF49-9A62-475C-A8FD-4ECB71291B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>assignment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>reference</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -60,10 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bitwidth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0x00</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,6 +277,18 @@
   </si>
   <si>
     <t>spcr.miso_read_trigger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit_field_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit_assignment</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1047,7 +1047,7 @@
   <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1055,7 +1055,7 @@
     <col min="2" max="2" width="13.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.4140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.58203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -1065,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>0</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="2" spans="2:11" ht="18.5" thickBot="1">
       <c r="B2" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="37">
         <v>8</v>
@@ -1082,83 +1082,83 @@
     <row r="3" spans="2:11" ht="18.5" thickBot="1"/>
     <row r="4" spans="2:11" ht="18.5" thickBot="1">
       <c r="B4" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>3</v>
-      </c>
       <c r="K4" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="18.5" thickTop="1">
       <c r="B5" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="15"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1170,19 +1170,19 @@
       <c r="B7" s="15"/>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1194,19 +1194,19 @@
       <c r="B8" s="15"/>
       <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1218,19 +1218,19 @@
       <c r="B9" s="15"/>
       <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1242,19 +1242,19 @@
       <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1266,19 +1266,19 @@
       <c r="B11" s="15"/>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1290,19 +1290,19 @@
       <c r="B12" s="17"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1312,31 +1312,31 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K13" s="16"/>
     </row>
@@ -1344,19 +1344,19 @@
       <c r="B14" s="15"/>
       <c r="C14" s="7"/>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1369,16 +1369,16 @@
       <c r="C15" s="7"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="35"/>
@@ -1388,19 +1388,19 @@
       <c r="B16" s="15"/>
       <c r="C16" s="7"/>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -1410,28 +1410,28 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="16"/>
@@ -1440,47 +1440,47 @@
       <c r="B18" s="15"/>
       <c r="C18" s="7"/>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="16"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -1492,19 +1492,19 @@
       <c r="B20" s="15"/>
       <c r="C20" s="7"/>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -1516,19 +1516,19 @@
       <c r="B21" s="15"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -1540,19 +1540,19 @@
       <c r="B22" s="15"/>
       <c r="C22" s="7"/>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -1564,19 +1564,19 @@
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -1588,19 +1588,19 @@
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
@@ -1612,19 +1612,19 @@
       <c r="B25" s="15"/>
       <c r="C25" s="7"/>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -1636,19 +1636,19 @@
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" s="22">
         <v>1</v>
